--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,151 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -109,40 +253,40 @@
   <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.42578125" customWidth="true"/>
-    <col min="3" max="3" width="13" customWidth="true"/>
-    <col min="4" max="4" width="13.7109375" customWidth="true"/>
-    <col min="5" max="5" width="16.7109375" customWidth="true"/>
-    <col min="6" max="6" width="17.42578125" customWidth="true"/>
-    <col min="7" max="7" width="17.28515625" customWidth="true"/>
-    <col min="8" max="8" width="18" customWidth="true"/>
+    <col min="1" max="1" width="14.37890625" customWidth="true"/>
+    <col min="2" max="2" width="13.37890625" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.37890625" customWidth="true"/>
+    <col min="5" max="5" width="16.15625" customWidth="true"/>
+    <col min="6" max="6" width="16.82421875" customWidth="true"/>
+    <col min="7" max="7" width="16.7109375" customWidth="true"/>
+    <col min="8" max="8" width="17.37890625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -265,28 +361,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,247 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -361,28 +601,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,1519 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -601,28 +2113,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>168</v>
+        <v>672</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>169</v>
+        <v>673</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>170</v>
+        <v>674</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>171</v>
+        <v>675</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>172</v>
+        <v>676</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>173</v>
+        <v>677</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>174</v>
+        <v>678</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>175</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -2101,40 +2173,40 @@
   <dimension ref="A1:H7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.37890625" customWidth="true"/>
-    <col min="2" max="2" width="13.37890625" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="13.37890625" customWidth="true"/>
-    <col min="5" max="5" width="16.15625" customWidth="true"/>
-    <col min="6" max="6" width="16.82421875" customWidth="true"/>
-    <col min="7" max="7" width="16.7109375" customWidth="true"/>
-    <col min="8" max="8" width="17.37890625" customWidth="true"/>
+    <col min="1" max="1" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="13.42578125" customWidth="true"/>
+    <col min="3" max="3" width="13" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.7109375" customWidth="true"/>
+    <col min="6" max="6" width="17.42578125" customWidth="true"/>
+    <col min="7" max="7" width="17.28515625" customWidth="true"/>
+    <col min="8" max="8" width="18" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>672</v>
+        <v>696</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2">
@@ -2165,132 +2237,132 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.12707721311968853</v>
+        <v>0.12707721311969156</v>
       </c>
       <c r="B3" s="0">
-        <v>0.97667982680353571</v>
+        <v>0.97667982680353593</v>
       </c>
       <c r="C3" s="0">
-        <v>0.15870992102212955</v>
+        <v>0.15870992102213463</v>
       </c>
       <c r="D3" s="0">
-        <v>0.94272430491611714</v>
+        <v>0.94272430491611647</v>
       </c>
       <c r="E3" s="0">
-        <v>0.67841841014104065</v>
+        <v>0.67841841014086557</v>
       </c>
       <c r="F3" s="0">
-        <v>0.93580713192573106</v>
+        <v>0.9358071319256096</v>
       </c>
       <c r="G3" s="0">
-        <v>0.75396594088932889</v>
+        <v>0.75396594088951718</v>
       </c>
       <c r="H3" s="0">
-        <v>0.91930625830830692</v>
+        <v>0.91930625830829782</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.71188863340712483</v>
+        <v>0.7118886334071246</v>
       </c>
       <c r="B4" s="0">
-        <v>0.77724356965881347</v>
+        <v>0.77724356965881236</v>
       </c>
       <c r="C4" s="0">
         <v>0.66500228989963728</v>
       </c>
       <c r="D4" s="0">
-        <v>0.73844851010855617</v>
+        <v>0.73844851010855694</v>
       </c>
       <c r="E4" s="0">
-        <v>0.67223812970587371</v>
+        <v>0.67223812970587637</v>
       </c>
       <c r="F4" s="0">
-        <v>0.87768243371383536</v>
+        <v>0.87768243371360111</v>
       </c>
       <c r="G4" s="0">
-        <v>0.66447534863544921</v>
+        <v>0.66447534863547708</v>
       </c>
       <c r="H4" s="0">
-        <v>0.91333942656723754</v>
+        <v>0.91333942656720479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.25475515605467497</v>
+        <v>0.25475515605467547</v>
       </c>
       <c r="B5" s="0">
-        <v>0.45038298756223027</v>
+        <v>0.45038298756222611</v>
       </c>
       <c r="C5" s="0">
-        <v>0.36132249669739175</v>
+        <v>0.36132249669739241</v>
       </c>
       <c r="D5" s="0">
-        <v>0.32379732374075165</v>
+        <v>0.32379732374074915</v>
       </c>
       <c r="E5" s="0">
-        <v>0.053076141224892154</v>
+        <v>0.053076141224645046</v>
       </c>
       <c r="F5" s="0">
-        <v>0.048170918244039476</v>
+        <v>0.048170918245366762</v>
       </c>
       <c r="G5" s="0">
-        <v>0.12409477499499147</v>
+        <v>0.12409477499495966</v>
       </c>
       <c r="H5" s="0">
-        <v>-0.26829405938027212</v>
+        <v>-0.26829405938026252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.03709328043844666</v>
+        <v>-0.037093280438475498</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.52254443670082518</v>
+        <v>-0.52254443670081385</v>
       </c>
       <c r="C6" s="0">
-        <v>0.36132249669739175</v>
+        <v>0.36132249669739241</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.11489563210683275</v>
+        <v>-0.11489563210724993</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.098016840041031145</v>
+        <v>-0.098016840040926118</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.60455732473782109</v>
+        <v>-0.60455732473854995</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.20936655745760155</v>
+        <v>-0.20936655745765653</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.59132194424322038</v>
+        <v>-0.59132194424313789</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.30960740070981696</v>
+        <v>-0.30960740070981707</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.60976307006908836</v>
+        <v>-0.60976307006908781</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.075429343833160162</v>
+        <v>-0.075429343833153764</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.40180290669815089</v>
+        <v>-0.40180290669815732</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.33497408862798639</v>
+        <v>-0.33497408862831557</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.72568840098687515</v>
+        <v>-0.72568840098517085</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.30185061527578239</v>
+        <v>-0.30185061527581492</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.93532552882018949</v>
+        <v>-0.93532552882013587</v>
       </c>
     </row>
   </sheetData>

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -2185,28 +2305,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
     </row>
     <row r="2">

--- a/Resultados_correlation.xlsx
+++ b/Resultados_correlation.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="760">
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
+  <si>
+    <t>Linear Nic</t>
+  </si>
+  <si>
+    <t>Linear USA</t>
+  </si>
+  <si>
+    <t>Quadratic Nic</t>
+  </si>
+  <si>
+    <t>Quadratic USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 100 USA</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 Nic</t>
+  </si>
+  <si>
+    <t>HP con λ = 6.25 USA</t>
+  </si>
   <si>
     <t>Linear Nic</t>
   </si>
@@ -2305,28 +2353,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2">
